--- a/thinkphp_5.0.20_with_ext/application/doc/database.xlsx
+++ b/thinkphp_5.0.20_with_ext/application/doc/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>table</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,179 +44,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>registertime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastlogintime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rankpre</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alipaynum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banknum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_invest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchinfotype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_matchinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注类型marchinfotype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curinvest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前投资额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算、撤销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cufofftime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_accountinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondpassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theotherid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marchinfotype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remaininvest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tb_account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idcard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alipaynum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banknum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bankname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bankdeposit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_transfer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值、提现、转入、转出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theotherside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>submittime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transfertime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>confirmtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方确认时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_invest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>investtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>caption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>matchinfotype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>matchtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_profit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_match</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_matchinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐人收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下注类型marchinfotype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curinvest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前投资额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算、撤销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cufofftime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下注截止时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,12 +565,12 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
@@ -589,7 +585,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -598,205 +594,252 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" t="s">
-        <v>17</v>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" t="s">
-        <v>48</v>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H20" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/thinkphp_5.0.20_with_ext/application/doc/database.xlsx
+++ b/thinkphp_5.0.20_with_ext/application/doc/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>table</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,14 +129,6 @@
   </si>
   <si>
     <t>当前投资额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算、撤销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -565,7 +557,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J11" sqref="J11:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -594,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -609,13 +601,13 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -628,10 +620,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -643,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -655,7 +647,7 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -665,24 +657,24 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -694,21 +686,21 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -720,16 +712,16 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -737,44 +729,38 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -793,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -802,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -810,7 +796,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -828,10 +814,10 @@
         <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -839,7 +825,7 @@
         <v>28</v>
       </c>
       <c r="J20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
